--- a/docs/odh/shr-core-BodyLocation-model.xlsx
+++ b/docs/odh/shr-core-BodyLocation-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="59">
   <si>
     <t>Path</t>
   </si>
@@ -134,13 +134,16 @@
     <t>*</t>
   </si>
   <si>
-    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart.
-The BodyLocation includes code and optional qualifiers of anatomical side or direction. The body location can also be determined from one or more body landmarks.
-If the code for the body location includes laterality and/or anatomical direction, the corresponding attributes might be unnecessary.
-Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how an address structure can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
-  </si>
-  <si>
-    <t>shr-core-BodyLocation-model.locationCode</t>
+    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>shr-core-BodyLocation-model.code</t>
   </si>
   <si>
     <t>1</t>
@@ -150,13 +153,13 @@
 </t>
   </si>
   <si>
-    <t>Code for the body location, optionally pre-coordinating laterality or direction.</t>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>shr-core-BodyLocation-model.laterality</t>
@@ -165,10 +168,20 @@
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
   </si>
   <si>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/LateralityVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-LateralityVS</t>
   </si>
   <si>
     <t>shr-core-BodyLocation-model.orientation</t>
@@ -177,17 +190,40 @@
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/OrientationVS</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-OrientationVS</t>
   </si>
   <si>
     <t>shr-core-BodyLocation-model.relationToLandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:</t>
+  </si>
+  <si>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
 </sst>
 </file>
@@ -336,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -355,7 +391,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -369,7 +405,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -710,7 +746,7 @@
         <v>47</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -737,11 +773,11 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -776,7 +812,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -802,10 +838,10 @@
         <v>42</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -832,11 +868,11 @@
         <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z5" t="s" s="2">
         <v>36</v>
@@ -854,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -871,7 +907,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -894,13 +930,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -951,7 +987,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
